--- a/medicine/Enfance/Chair_de_poule_(série_télévisée,_1995)/Chair_de_poule_(série_télévisée,_1995).xlsx
+++ b/medicine/Enfance/Chair_de_poule_(série_télévisée,_1995)/Chair_de_poule_(série_télévisée,_1995).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chair_de_poule_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_1995)</t>
+          <t>Chair_de_poule_(série_télévisée,_1995)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chair de poule (Goosebumps) est une anthologie télévisée canadienne en 74 épisodes de 21 minutes, créée par Deborah Forte, adaptée de la série de romans Chair de poule de R. L. Stine et diffusée entre le 27 octobre 1995 et le 16 novembre 1998 sur YTV.
-Au Québec, la série fut doublée et diffusée à partir du 6 septembre 1996 sur Canal Famille[1]. En France, la série a été re-doublée et diffusée à partir du 23 août 1997 sur France 2 dans La Planète de Donkey Kong puis dans KD2A jusqu'en 2003 et rediffusée sur Fox Kids puis Jetix jusqu'à l'été 2008 ainsi que sur Disney XD dans les années 2010. En Belgique, elle a été diffusée par la chaîne Club RTL au début des années 2000, et en Suisse, sur TSR2 dans l'émission Les Zap à plusieurs reprises.
+Au Québec, la série fut doublée et diffusée à partir du 6 septembre 1996 sur Canal Famille. En France, la série a été re-doublée et diffusée à partir du 23 août 1997 sur France 2 dans La Planète de Donkey Kong puis dans KD2A jusqu'en 2003 et rediffusée sur Fox Kids puis Jetix jusqu'à l'été 2008 ainsi que sur Disney XD dans les années 2010. En Belgique, elle a été diffusée par la chaîne Club RTL au début des années 2000, et en Suisse, sur TSR2 dans l'émission Les Zap à plusieurs reprises.
 La première saison disponible sur Netflix a eu droit à un troisième doublage, belge cette fois-ci. De plus, elle ne reprend pas l'ordre ni tous les épisodes de la saison tels que diffusés originellement. 
-La série marque la première adaptation en prise de vues réelles de Chair de poule. Elle sera suivie par deux adaptations cinématographiques, ainsi que par une seconde série télévisée, lancée en 2023[2].
+La série marque la première adaptation en prise de vues réelles de Chair de poule. Elle sera suivie par deux adaptations cinématographiques, ainsi que par une seconde série télévisée, lancée en 2023.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chair_de_poule_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_1995)</t>
+          <t>Chair_de_poule_(série_télévisée,_1995)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La série Chair de poule est adaptée des romans à succès éponymes pour la jeunesse écrits par Robert Lawrence Stine. Cet auteur américain a écrit de nombreux romans aux histoires plus cauchemardesques les unes que les autres. Parmi les titres les plus connus, on peut citer Le Masque hanté ou Sang de monstre, par exemple.
 La plupart de ces histoires, écrites dès 1992, ont ainsi été adaptées en épisodes de 21 minutes, retranscrivant fidèlement l'univers des livres.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chair_de_poule_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_1995)</t>
+          <t>Chair_de_poule_(série_télévisée,_1995)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette série, destinée aux enfants, est une série d'histoires horrifiques et fantastiques.
 Chaque épisode, sauf épisodes doubles ou triples, fonctionne indépendamment des autres, chacun mettant en scènes des personnages et des situations différentes.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chair_de_poule_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_1995)</t>
+          <t>Chair_de_poule_(série_télévisée,_1995)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre original : Goosebumps
 Titre français : Chair de poule
@@ -611,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chair_de_poule_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_1995)</t>
+          <t>Chair_de_poule_(série_télévisée,_1995)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,15 +647,52 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Dans chaque épisode les personnages varient, il est donc impossible de lister tous les acteurs de la série.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans chaque épisode les personnages varient, il est donc impossible de lister tous les acteurs de la série.
 Néanmoins, certains acteurs ont joué dans plusieurs épisodes différents.
 Par ailleurs, la série a notamment révélé Hayden Christensen (futur interprète entre autres d'Anakin Skywalker dans la saga Star Wars) qui a fait ses débuts dans la série en 1997 à l'âge de 16 ans notamment dans l'épisode Le Pantin maléfique (parties 1 et 2) où il joue le rôle de Zane, un enfant persécuté par ses cousins et des marionnettes ; de même que Ryan Gosling, interprétant le personnage principal dans l'épisode Dangereuses Photos, ainsi que Andrea Joy Cook (qui interprète Jennifer « J.J. » Jareau dans la série Esprits criminels) dans l'épisode Ne réveillez pas la momie où elle joue le rôle de Kim, la grande sœur de Jeff qui cherche sans arrêt à le terrifier.
 Colin Fox joue le rôle du commerçant dans les épisodes Le Masque hanté I (parties 1 et 2) et Le Masque hanté II (parties 1 et 2).
 La série possède trois doublages francophones. Le premier est originaire du Québec (VQ), le second de France (VF) et le dernier de Belgique (VB) mais uniquement pour la saison 1.
-Voix françaises
-Par ordre alphabétique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chair_de_poule_(série_télévisée,_1995)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chair_de_poule_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_1995)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Par ordre alphabétique
 Benoît Allemane
 Vincent Barazzoni
 Michel Bedetti
@@ -696,8 +751,43 @@
 Version française
 Studio de doublage : SOFI
 Direction artistique : Marc François
-Adaptation : Frédéric Espin
-Voix québécoises
+Adaptation : Frédéric Espin</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chair_de_poule_(série_télévisée,_1995)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chair_de_poule_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_1995)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Voix québécoises</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bernard Fortin
 Camille Cyr-Desmarais
 Hubert Gagnon
@@ -736,9 +826,44 @@
 Studio de doublage : Bellevue Pathé
 Direction artistique : Hubert Gagnon
 Adaptation : Huguette Gervais
- Source et légende : version québécoise (VQ) sur Doublage.qc.ca[3]
-Voix belges (saison 1)
-Épisodes Netflix :
+ Source et légende : version québécoise (VQ) sur Doublage.qc.ca
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chair_de_poule_(série_télévisée,_1995)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chair_de_poule_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_1995)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Voix belges (saison 1)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Épisodes Netflix :
 N1E01 : Épisode 4 : La Fille qui criait au monstre
 N1E02 : Épisode 14 : Terreur sous l'évier
 N1E03 : Épisode 3 : L'Horloge maudite
@@ -796,57 +921,61 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Chair_de_poule_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_1995)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chair_de_poule_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_1995)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chair_de_poule_(série_télévisée,_1995)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chair_de_poule_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_1995)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Chair_de_poule_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_1995)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chair_de_poule_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_1995)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chair_de_poule_(série_télévisée,_1995)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chair_de_poule_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_1995)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Générique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le générique commence par un homme vêtu de noir portant une mallette sur une colline. Le nom gravé sur sa mallette révèle d'emblée l'identité de l'homme mystérieux : il s'agit de R. L. Stine, l'auteur des romans Chair de poule sur lesquels sont basés les épisodes de la série éponyme. Un vent puissant souffle, faisant tout d'un coup ouvrir la mallette de l'auteur d'où sortent des papiers qui s'envolent. Le village en fond à ce moment est Tadoussac, village du Québec. À noter que l'image du village a été inversée.
 L'un des papiers se transforme en ombre ressemblant à un « G » (le même que celui du logo Goosebumps, le nom original de la série) et passe au-dessus d'un panneau d'affichage sur lequel figure une femme qui devient soudain terne et déprimée. L'ombre passe ensuite par-dessus un chien sous un porche dont le regard devient diabolique avec des yeux jaunes. Après avoir glissé sur un arbre, le « G » (dont le « C » du logo français Chair de poule est volontairement proche de celui-ci) passe la porte d'entrée d'une maison et commence ainsi un montage rapide d'extraits terrifiants de plusieurs épisodes de la série (principalement de la première saison) jusqu'à l'apparition du logo d'ouverture Chair de poule gluant et vert et de la note « D'après la série de livres de R. L. Stine » juste en dessous.
@@ -858,31 +987,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Chair_de_poule_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_1995)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chair_de_poule_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_1995)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chair_de_poule_(série_télévisée,_1995)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chair_de_poule_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_1995)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Certains des épisodes qui sont en deux parties dans les saisons 1 et 2 ont d'abord été diffusés aux États-Unis en une seule partie lors de soirées spéciales. Il s'agit des épisodes qui sont introduits et conclus par R. L. Stine lui-même : Le Masque hanté, Le Masque Hanté II, La Tour de la terreur, La Maison des morts, Le Pantin maléfique et Le Loup-garou des marécages.
 Certains livres de la collection Chair de poule, comme La Bête de la cave ou Méfiez-vous des abeilles ! par exemple, n'ont jamais été adaptés en épisodes. Ils furent soit abandonnés en cours de tournage soit jamais diffusés, notamment à cause de la difficulté d'adaptation ou de réalisation.
@@ -891,31 +1022,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Chair_de_poule_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_1995)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chair_de_poule_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_1995)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Chair_de_poule_(série_télévisée,_1995)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chair_de_poule_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_1995)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>VHS et coffrets DVD</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Cinq cassettes VHS sont sorties à la fin des années 1990 et au début des années 2000 : Le Masque hanté, La Revanche du pantin, Le Loup-garou des marécages, La Tour de la terreur et Bienvenue dans la Maison des morts.
 En octobre 2012, la France est le premier pays au monde à sortir Chair de poule en coffret DVD avec l'intégrale saison 1.
@@ -929,31 +1062,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Chair_de_poule_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_1995)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chair_de_poule_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_1995)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Chair_de_poule_(série_télévisée,_1995)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chair_de_poule_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_1995)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Films</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film Chair de poule réalisé par Rob Letterman et est sorti en 2015 avec deux acteurs connus, Jack Black et Ken Marino.
 La suite, Chair de poule 2 : Les Fantômes d'Halloween, est sortie en octobre 2018.
